--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/4.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/4.xlsx
@@ -479,13 +479,13 @@
         <v>0.03781752469518129</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.515461148039082</v>
+        <v>-2.492269014139043</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07517838026487403</v>
+        <v>-0.06892061414723935</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2019460476300516</v>
+        <v>0.1934208268272357</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.04017379101648526</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.718386661978073</v>
+        <v>-2.689521511220808</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1232957251488611</v>
+        <v>-0.1191345880897713</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2558656236273098</v>
+        <v>0.2472235989772212</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.0428571760728134</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.012012553396449</v>
+        <v>-2.977811656890958</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2236696512545614</v>
+        <v>-0.2156335465622</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2694338505361243</v>
+        <v>0.2614882688253992</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.04502535331788397</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.230414577099072</v>
+        <v>-3.193884173864537</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.310751299540629</v>
+        <v>-0.3011091419482679</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2809346493482122</v>
+        <v>0.2702324968418514</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.04655909493802856</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.27961746773865</v>
+        <v>-3.243517778690932</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3644869094784327</v>
+        <v>-0.3523042682078905</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3123475840241128</v>
+        <v>0.3011358747340249</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.04780659466886662</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.062384942556845</v>
+        <v>-3.028251208263536</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4274865245530521</v>
+        <v>-0.4104609037649658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3108875359332041</v>
+        <v>0.2989954442327528</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.04923333445974886</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.70597771325344</v>
+        <v>-2.674885259133494</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5333954929713873</v>
+        <v>-0.514162279469847</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2919842933002092</v>
+        <v>0.2832546657646661</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.05415345333870653</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.277256492079465</v>
+        <v>-2.245496065957928</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5349066427454778</v>
+        <v>-0.5165319375213919</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2899227053958461</v>
+        <v>0.2814573465647575</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.0667906802982057</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.897731591328657</v>
+        <v>-1.865275452291802</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6101049596196395</v>
+        <v>-0.5878290058966454</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3044662444293876</v>
+        <v>0.2965586239690262</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.09308327084318287</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.391816167540248</v>
+        <v>-1.361247140660892</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7482780707508752</v>
+        <v>-0.7236251587358817</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3156268520362938</v>
+        <v>0.3095953933727499</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1380379948850982</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8461071330341216</v>
+        <v>-0.8130677047849486</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9102514258120135</v>
+        <v>-0.8864526419302017</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3625936790246448</v>
+        <v>0.3560585037697375</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2033773222427953</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3445382724123471</v>
+        <v>-0.3094197356817202</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.218193088761749</v>
+        <v>-1.188520531410211</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3946563351009998</v>
+        <v>0.3894950650996375</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2884429178491356</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2556539166541281</v>
+        <v>0.2886875047109373</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.650532309104996</v>
+        <v>-1.616774537195096</v>
       </c>
       <c r="G14" t="n">
-        <v>0.494313377594064</v>
+        <v>0.4878585049841566</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3866685647907563</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8736119708907802</v>
+        <v>0.906366689762226</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.052684305144661</v>
+        <v>-2.016693389679716</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5763257389084965</v>
+        <v>0.5726799988254975</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.492805854369508</v>
       </c>
       <c r="E16" t="n">
-        <v>1.35754783071865</v>
+        <v>1.393402231687095</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.446081852831238</v>
+        <v>-2.40617435836243</v>
       </c>
       <c r="G16" t="n">
-        <v>0.69532695855801</v>
+        <v>0.6927076322829198</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6024236847378855</v>
       </c>
       <c r="E17" t="n">
-        <v>1.90183185828805</v>
+        <v>1.933078347481587</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.803673911160414</v>
+        <v>-2.762840746201971</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8098005690776156</v>
+        <v>0.8074820127092526</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7119649798834725</v>
       </c>
       <c r="E18" t="n">
-        <v>2.310305132537303</v>
+        <v>2.340173336333023</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.140477074747187</v>
+        <v>-3.101578473509198</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9421407880856709</v>
+        <v>0.9413669625974894</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8200173133273853</v>
       </c>
       <c r="E19" t="n">
-        <v>2.757193732106456</v>
+        <v>2.784254263423358</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.411991267852796</v>
+        <v>-3.374141711168125</v>
       </c>
       <c r="G19" t="n">
-        <v>1.11661507490117</v>
+        <v>1.116848682595715</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9223129961736355</v>
       </c>
       <c r="E20" t="n">
-        <v>3.069543280242645</v>
+        <v>3.09477729139782</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.682751346119451</v>
+        <v>-3.64555370090737</v>
       </c>
       <c r="G20" t="n">
-        <v>1.256601565761314</v>
+        <v>1.25738269148995</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.016067459238653</v>
       </c>
       <c r="E21" t="n">
-        <v>3.405187895669282</v>
+        <v>3.429401333208912</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.906363551434481</v>
+        <v>-3.869760875819446</v>
       </c>
       <c r="G21" t="n">
-        <v>1.375392538485736</v>
+        <v>1.375915235702282</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.098648141144931</v>
       </c>
       <c r="E22" t="n">
-        <v>3.721415331534925</v>
+        <v>3.745890117682827</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.072065139295756</v>
+        <v>-4.036569180133628</v>
       </c>
       <c r="G22" t="n">
-        <v>1.442982544758173</v>
+        <v>1.445812117958354</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.168267363398798</v>
       </c>
       <c r="E23" t="n">
-        <v>3.924487580307052</v>
+        <v>3.943961701743592</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.182655751917589</v>
+        <v>-4.152108625759597</v>
       </c>
       <c r="G23" t="n">
-        <v>1.528256653507695</v>
+        <v>1.529469953471241</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.22502939186392</v>
       </c>
       <c r="E24" t="n">
-        <v>4.082534866051737</v>
+        <v>4.103042701536641</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.243306149613937</v>
+        <v>-4.217126757319898</v>
       </c>
       <c r="G24" t="n">
-        <v>1.578816658847773</v>
+        <v>1.580409571314954</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.267664256705358</v>
       </c>
       <c r="E25" t="n">
-        <v>4.183257743651164</v>
+        <v>4.202391673882523</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.272511491576384</v>
+        <v>-4.250860438436298</v>
       </c>
       <c r="G25" t="n">
-        <v>1.593656587643769</v>
+        <v>1.596846792722404</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.297384493113634</v>
       </c>
       <c r="E26" t="n">
-        <v>4.211568076133884</v>
+        <v>4.231380928727515</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.182175396095681</v>
+        <v>-4.167954527690229</v>
       </c>
       <c r="G26" t="n">
-        <v>1.545942216032872</v>
+        <v>1.552765020761689</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.314914345362215</v>
       </c>
       <c r="E27" t="n">
-        <v>4.168584260337532</v>
+        <v>4.191155143774889</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.110910448778426</v>
+        <v>-4.101908522273929</v>
       </c>
       <c r="G27" t="n">
-        <v>1.520192807901607</v>
+        <v>1.526028620120969</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.320767216169873</v>
       </c>
       <c r="E28" t="n">
-        <v>4.121972225035272</v>
+        <v>4.144099253852993</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.942354466899427</v>
+        <v>-3.938403576765428</v>
       </c>
       <c r="G28" t="n">
-        <v>1.428812778035904</v>
+        <v>1.439719337274992</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.316476994198545</v>
       </c>
       <c r="E29" t="n">
-        <v>3.967229028120313</v>
+        <v>3.991411804650034</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.772112129475427</v>
+        <v>-3.771282822159791</v>
       </c>
       <c r="G29" t="n">
-        <v>1.324911375742568</v>
+        <v>1.337866382453201</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.300984793959612</v>
       </c>
       <c r="E30" t="n">
-        <v>3.86667405605134</v>
+        <v>3.891270026190788</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.608099087231289</v>
+        <v>-3.611441867335424</v>
       </c>
       <c r="G30" t="n">
-        <v>1.233690491118774</v>
+        <v>1.248910032418407</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.276680286239658</v>
       </c>
       <c r="E31" t="n">
-        <v>3.710758440519382</v>
+        <v>3.734437500457739</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.459315076599375</v>
+        <v>-3.46476981626701</v>
       </c>
       <c r="G31" t="n">
-        <v>1.135167905992347</v>
+        <v>1.151924877931706</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.244145574747189</v>
       </c>
       <c r="E32" t="n">
-        <v>3.552333002319152</v>
+        <v>3.575436803309691</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.265834613760472</v>
+        <v>-3.277806278081878</v>
       </c>
       <c r="G32" t="n">
-        <v>1.019742344117468</v>
+        <v>1.036521216778191</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.204563473605864</v>
       </c>
       <c r="E33" t="n">
-        <v>3.372059404486564</v>
+        <v>3.39634730447883</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.121900882886556</v>
+        <v>-3.135872083068461</v>
       </c>
       <c r="G33" t="n">
-        <v>0.967615707175846</v>
+        <v>0.9830936769875691</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.159859813258056</v>
       </c>
       <c r="E34" t="n">
-        <v>3.181696874345797</v>
+        <v>3.20273324723961</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.107841349795151</v>
+        <v>-3.117478397219193</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8727315618919623</v>
+        <v>0.8880883477121401</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.109881959776835</v>
       </c>
       <c r="E35" t="n">
-        <v>2.887135092101149</v>
+        <v>2.904043909041962</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.990208925230864</v>
+        <v>-3.000206604533362</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8247164203743389</v>
+        <v>0.8391884170514259</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.056684758446163</v>
       </c>
       <c r="E36" t="n">
-        <v>2.596497919124863</v>
+        <v>2.617775199953676</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.933602130722288</v>
+        <v>-2.943055942110922</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7599749679272654</v>
+        <v>0.7729299746378983</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9998966826586924</v>
       </c>
       <c r="E37" t="n">
-        <v>2.334013393437479</v>
+        <v>2.357869119194836</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.868551148079942</v>
+        <v>-2.876397446520485</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7139148308033686</v>
+        <v>0.7237321941666387</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9399304845722886</v>
       </c>
       <c r="E38" t="n">
-        <v>2.025113938940108</v>
+        <v>2.050352330239555</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.793741934022008</v>
+        <v>-2.801238550944778</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6372623060306619</v>
+        <v>0.6478272140164772</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8780219210175625</v>
       </c>
       <c r="E39" t="n">
-        <v>1.74009795111382</v>
+        <v>1.764784444234905</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.669419569105178</v>
+        <v>-2.679869133291811</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6143629117728499</v>
+        <v>0.6226063432941205</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8139775464172199</v>
       </c>
       <c r="E40" t="n">
-        <v>1.505329518336156</v>
+        <v>1.527636133069059</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.550762190781073</v>
+        <v>-2.561801614396434</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5405049190461425</v>
+        <v>0.54957911793114</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7505083339320376</v>
       </c>
       <c r="E41" t="n">
-        <v>1.257689301589041</v>
+        <v>1.282597722019943</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.436408304204922</v>
+        <v>-2.4481032894131</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4782557686902501</v>
+        <v>0.486732807906066</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6879674157901368</v>
       </c>
       <c r="E42" t="n">
-        <v>1.044333934112644</v>
+        <v>1.067964812464001</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.317247209289454</v>
+        <v>-2.330046720878405</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4106424016483591</v>
+        <v>0.4185427218682661</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6272041588980461</v>
       </c>
       <c r="E43" t="n">
-        <v>0.841617937074698</v>
+        <v>0.864981626625419</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.213588905003254</v>
+        <v>-2.22691768402516</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3559650606919193</v>
+        <v>0.3625805385918266</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5692961898807517</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6791481656626507</v>
+        <v>0.7023454097310081</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.151526640802998</v>
+        <v>-2.164553189870086</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2662611660345797</v>
+        <v>0.2734621232189414</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5134680068485594</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5007142284246077</v>
+        <v>0.5235800415763289</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.045257040506208</v>
+        <v>-2.059668445187523</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2349168536189518</v>
+        <v>0.2408475689642229</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4613153842388141</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3311807443487441</v>
+        <v>0.3547021190932833</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.97215243259441</v>
+        <v>-1.986529526145588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2087469516375043</v>
+        <v>0.2159420686295023</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4126225032028451</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1579328979296088</v>
+        <v>0.1798482197741484</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.911619568769381</v>
+        <v>-1.928131252629467</v>
       </c>
       <c r="G47" t="n">
-        <v>0.140242955260159</v>
+        <v>0.1466379658983391</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.36773516257505</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03468001823936919</v>
+        <v>0.05490168429845467</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.862740808805985</v>
+        <v>-1.877162433823936</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1269521374886171</v>
+        <v>0.1332274241833427</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.326755468127285</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.09946774030523114</v>
+        <v>-0.07852189039305496</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.787695796981369</v>
+        <v>-1.803760706125637</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07490580319199476</v>
+        <v>0.08230532691672005</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2883419289856425</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2039677623158395</v>
+        <v>-0.1838351591902994</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.765890708767693</v>
+        <v>-1.780241521453234</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03852432486273179</v>
+        <v>0.04589026748136618</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2528118050236529</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3152088263621732</v>
+        <v>-0.2982357673053596</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.711744825316344</v>
+        <v>-1.726673817045885</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03509175180100545</v>
+        <v>0.04295119067436697</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2192388781858363</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3706979540571583</v>
+        <v>-0.353784756972072</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.706203942811345</v>
+        <v>-1.718976443510615</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0278582216385231</v>
+        <v>-0.02041489647107056</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1877757657060756</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4721508557020402</v>
+        <v>-0.454931048517863</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.699569484286256</v>
+        <v>-1.71106444290598</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03033592324879517</v>
+        <v>-0.024181820545615</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1589362174654643</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5083804890298487</v>
+        <v>-0.4893327016358537</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.686620317767987</v>
+        <v>-1.696842114452439</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06572018873196749</v>
+        <v>-0.0591762531885147</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1328338387261017</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6313953808812701</v>
+        <v>-0.6105707149606394</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.666992891281901</v>
+        <v>-1.675801361414353</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08928682496732479</v>
+        <v>-0.08415767602396253</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1100897374984546</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7144969380715206</v>
+        <v>-0.693555468303617</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.631756090655911</v>
+        <v>-1.638089779274273</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1104954835358646</v>
+        <v>-0.105147327378866</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.08996734412977762</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8433447220461223</v>
+        <v>-0.8221579641989462</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.670416704055082</v>
+        <v>-1.676851135991717</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1115291975842279</v>
+        <v>-0.106251123735593</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.07203285287794844</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.914831596673194</v>
+        <v>-0.8929571561751999</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.643655482596817</v>
+        <v>-1.647955324224543</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1534369579375803</v>
+        <v>-0.149107915348036</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.05576455574620984</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.031813569812981</v>
+        <v>-1.010457446387259</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.655130000543268</v>
+        <v>-1.659819675011267</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1761100447413015</v>
+        <v>-0.1717474210456663</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.04063021246404573</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.071100543843152</v>
+        <v>-1.047628810733704</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.652490233594905</v>
+        <v>-1.658702738221722</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1886430975536617</v>
+        <v>-0.184514081552572</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.02688303520728621</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.154232762043311</v>
+        <v>-1.130632544701863</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.697687482297075</v>
+        <v>-1.702090987339255</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2480991759116458</v>
+        <v>-0.2431948743742835</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.01419403672611356</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.207698263084297</v>
+        <v>-1.184801788922667</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.701163856801528</v>
+        <v>-1.705786369057345</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2939884874089062</v>
+        <v>-0.2892652318348166</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.002709142910537761</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.277284155097006</v>
+        <v>-1.256111997730739</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.748797925767425</v>
+        <v>-1.75463957817915</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3122449287376285</v>
+        <v>-0.3072676247957208</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.008022514666004395</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.346005698639896</v>
+        <v>-1.326335930759174</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.780897083046052</v>
+        <v>-1.787162879428187</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3587868817315252</v>
+        <v>-0.354088446974981</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.017883046328519</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.363243026401165</v>
+        <v>-1.344579231655079</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.867412962696893</v>
+        <v>-1.871696013771573</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3553294878522534</v>
+        <v>-0.3507901983376182</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.0270909701113799</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.390045129205975</v>
+        <v>-1.37183102927189</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.979312508432226</v>
+        <v>-1.980198757623408</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.385958376703336</v>
+        <v>-0.3818979829625189</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.03565816868796335</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.432482887016328</v>
+        <v>-1.414744762759878</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.053101148874616</v>
+        <v>-2.05484298624707</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.358677378124707</v>
+        <v>-0.3542607326497082</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.04372372263359374</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.460739197719684</v>
+        <v>-1.442951431828143</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.167449195258403</v>
+        <v>-2.166944018618949</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4240933727897803</v>
+        <v>-0.4174355534952367</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.05117214845008845</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.457791360624139</v>
+        <v>-1.441599427295962</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.315003845397773</v>
+        <v>-2.311531851037592</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4437894215361387</v>
+        <v>-0.4352554404447773</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.05770238862733415</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.481895294556951</v>
+        <v>-1.462578858314229</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.440267941333239</v>
+        <v>-2.433912351993513</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4585563479275893</v>
+        <v>-0.4521905382512273</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06347322801619745</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.518716247361577</v>
+        <v>-1.498158770241583</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.605390620126467</v>
+        <v>-2.59389128136247</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5189702178332094</v>
+        <v>-0.5108333698225752</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.06820133771722145</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.525270403241666</v>
+        <v>-1.502198723309127</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.70266778423135</v>
+        <v>-2.689380616580036</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5377478963303862</v>
+        <v>-0.5284809710973887</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.07171132547923925</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.508996707220398</v>
+        <v>-1.484790569921223</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.824347462103636</v>
+        <v>-2.807410904249095</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5455460131839296</v>
+        <v>-0.5335750788865691</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.07377985720937133</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.563238953845747</v>
+        <v>-1.536591616138572</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.96050205674919</v>
+        <v>-2.939424072484787</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.555997037418654</v>
+        <v>-0.5426755586372031</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.07465288257755616</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.439150926647508</v>
+        <v>-1.412307942496151</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.021378761899628</v>
+        <v>-2.998404175165135</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5913214409300991</v>
+        <v>-0.5775911486831937</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.07433999371765446</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.334891812571899</v>
+        <v>-1.306390213789271</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.082481774504157</v>
+        <v>-3.057497431572528</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5831977333522831</v>
+        <v>-0.5693374968252868</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.07281499829516702</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.22259805385202</v>
+        <v>-1.194090614877028</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.158592621435137</v>
+        <v>-3.131673714783053</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5561620228529267</v>
+        <v>-0.539974469669022</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.07005540578236658</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.087219474766784</v>
+        <v>-1.057688542080065</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.219078033697212</v>
+        <v>-3.188491486240765</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5665342044907421</v>
+        <v>-0.5490063271593831</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.06556210716748961</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8864584821225653</v>
+        <v>-0.8559974988019371</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.284047983670512</v>
+        <v>-3.252132792451339</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5656464952514696</v>
+        <v>-0.5478207681095653</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.05911328041841812</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6746288649011676</v>
+        <v>-0.6424304243523581</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.322118007616911</v>
+        <v>-3.285961376693648</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5284313294622978</v>
+        <v>-0.509541227262121</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.05036493071326367</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4237575617288714</v>
+        <v>-0.3947580865472428</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.368273047866717</v>
+        <v>-3.328963443091137</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4904248176078534</v>
+        <v>-0.4722223980584947</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.03939458383329867</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1541742822234892</v>
+        <v>-0.1227890884613158</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.312429128485641</v>
+        <v>-3.272044198291106</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4525482500335</v>
+        <v>-0.4354598471775046</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.02614115696666604</v>
       </c>
       <c r="E83" t="n">
-        <v>0.130504434493798</v>
+        <v>0.1573561789336999</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.305752328565916</v>
+        <v>-3.261522361723973</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4343151694742322</v>
+        <v>-0.4181071756170547</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.01086615621656292</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4546818322144383</v>
+        <v>0.4801304704389768</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.257407946203792</v>
+        <v>-3.212650902001032</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3864372724771541</v>
+        <v>-0.370384043717613</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.006470819335141361</v>
       </c>
       <c r="E85" t="n">
-        <v>0.733451734307818</v>
+        <v>0.7548706398014485</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.170280306402861</v>
+        <v>-3.120439374747556</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3439104517332564</v>
+        <v>-0.3281214916781697</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.02533811221456062</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9901661499399308</v>
+        <v>1.00920517704538</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.082956290133703</v>
+        <v>-3.031636329762307</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2683909242790949</v>
+        <v>-0.254028431208826</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.0445230164809087</v>
       </c>
       <c r="E87" t="n">
-        <v>1.180321353251789</v>
+        <v>1.196576068647875</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.963477634758462</v>
+        <v>-2.909759545397749</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2325175426854681</v>
+        <v>-0.2186792068798355</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06241741469461304</v>
       </c>
       <c r="E88" t="n">
-        <v>1.34554477536329</v>
+        <v>1.35928236785065</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.728420842482843</v>
+        <v>-2.677116942640448</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2303201703086506</v>
+        <v>-0.2157342898804727</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07760802541465324</v>
       </c>
       <c r="E89" t="n">
-        <v>1.487160679892888</v>
+        <v>1.500377035211794</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.493988220766088</v>
+        <v>-2.444903594021874</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1589778404425788</v>
+        <v>-0.1465148699385821</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08848717722686524</v>
       </c>
       <c r="E90" t="n">
-        <v>1.607243795177765</v>
+        <v>1.616103366993399</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.212404806001528</v>
+        <v>-2.165796420819495</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1557744949311251</v>
+        <v>-0.1454329743032188</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09335612512298641</v>
       </c>
       <c r="E91" t="n">
-        <v>1.650979535740935</v>
+        <v>1.659738364238297</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.924405209901468</v>
+        <v>-1.880546825298662</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08894225361787034</v>
+        <v>-0.08205666682114492</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09041285321204595</v>
       </c>
       <c r="E92" t="n">
-        <v>1.619210349330853</v>
+        <v>1.630065806886759</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.567207364556837</v>
+        <v>-1.529898755689847</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1007890838275035</v>
+        <v>-0.09339394024705096</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07822203879411796</v>
       </c>
       <c r="E93" t="n">
-        <v>1.65064956487239</v>
+        <v>1.65926238856066</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.229888073969928</v>
+        <v>-1.196965449568027</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1293709852551322</v>
+        <v>-0.1222079893211341</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05673379235317166</v>
       </c>
       <c r="E94" t="n">
-        <v>1.604811355058311</v>
+        <v>1.617256804985217</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9824172228013577</v>
+        <v>-0.9556749819682739</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1339934975109492</v>
+        <v>-0.1277926732688599</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.02698284431773412</v>
       </c>
       <c r="E95" t="n">
-        <v>1.598003150810404</v>
+        <v>1.610102569339764</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6850477680778921</v>
+        <v>-0.665890477077079</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1914799709942973</v>
+        <v>-0.1849170548256628</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.008503464982264319</v>
       </c>
       <c r="E96" t="n">
-        <v>1.502784654513702</v>
+        <v>1.518439290144425</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4069903694528759</v>
+        <v>-0.3945639001511519</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2186748267355628</v>
+        <v>-0.2130405011527461</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04633831381484052</v>
       </c>
       <c r="E97" t="n">
-        <v>1.385523812188552</v>
+        <v>1.402004835038729</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2029004671613852</v>
+        <v>-0.1976048727356594</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3223367811419895</v>
+        <v>-0.3143415577961735</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08215661556237371</v>
       </c>
       <c r="E98" t="n">
-        <v>1.312052732205935</v>
+        <v>1.326596271239477</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04149945095188308</v>
+        <v>-0.03951232550015634</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.323991015628989</v>
+        <v>-0.3149226569363551</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1119961057441885</v>
       </c>
       <c r="E99" t="n">
-        <v>1.163189148953066</v>
+        <v>1.179119733672971</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0745787524196312</v>
+        <v>0.07236385946572271</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3359356690607131</v>
+        <v>-0.3261781676691703</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1348802710909233</v>
       </c>
       <c r="E100" t="n">
-        <v>1.001320917354473</v>
+        <v>1.020170138208105</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1677108399944244</v>
+        <v>0.1620020519589714</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3742254302447937</v>
+        <v>-0.3633363915827967</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.150577617298017</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8414923729388798</v>
+        <v>0.8651553723482371</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2172020901319565</v>
+        <v>0.2114465805575945</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3381476419184398</v>
+        <v>-0.326886290993261</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1617415296508566</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7381983506513621</v>
+        <v>0.7608685173589015</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2361943956984969</v>
+        <v>0.2301570968425894</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3538592194247083</v>
+        <v>-0.34407689721562</v>
       </c>
     </row>
   </sheetData>
